--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ootsu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ootsu\Documents\GitHub\pub_vba_modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB70F7D-3C2D-49FA-A14C-44CC808F5339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317147C-FDD5-4481-BC1A-BDA898B7E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>氏名</t>
   </si>
@@ -130,6 +130,86 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田三郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田四朗</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田五郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田六郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ロクロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田七郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナナロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田八郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハチロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田九朗</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田十郎　</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウロウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -138,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,6 +259,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,12 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -439,10 +535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -557,6 +653,294 @@
       </c>
       <c r="K3" s="1"/>
     </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H11" si="0">SUM(B4:G4)</f>
+        <v>14000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J11" si="1">H4-I4</f>
+        <v>4000</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
